--- a/InterviewPreparation.xlsx
+++ b/InterviewPreparation.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Interview Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59A9969-931D-4264-9F05-5AD3D6DBE511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D5EE2-E6EA-4869-8452-2316A4658DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="KrishNaik - Udemy Course" sheetId="2" r:id="rId2"/>
+    <sheet name="Joint study" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Progress Tracker'!$A$1:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Progress Tracker'!$A$1:$G$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>Topic</t>
   </si>
@@ -178,27 +178,9 @@
     <t>GPT4All</t>
   </si>
   <si>
-    <t>1. https://www.nomic.ai/gpt4all</t>
-  </si>
-  <si>
-    <t>Udemy Course Name</t>
-  </si>
-  <si>
-    <t>Complete Guide to Building, Deploying, and Optimizing Generative AI with Langchain and Huggingface</t>
-  </si>
-  <si>
     <t>1. https://github.com/ajac-zero/excel-rag-example</t>
   </si>
   <si>
-    <t>Completed Topic</t>
-  </si>
-  <si>
-    <t>21,22,23</t>
-  </si>
-  <si>
-    <t>Actual Date</t>
-  </si>
-  <si>
     <t>Agentarium</t>
   </si>
   <si>
@@ -209,9 +191,6 @@
   </si>
   <si>
     <t>https://github.com/Thytu/Agentarium</t>
-  </si>
-  <si>
-    <t>https://ollama.com/blog/embedding-models</t>
   </si>
   <si>
     <t>Graph RAG</t>
@@ -239,12 +218,6 @@
     <t xml:space="preserve">Online code execution </t>
   </si>
   <si>
-    <t>Excel RAG with Structured Output - Highest Priority now</t>
-  </si>
-  <si>
-    <t>Unstructred Data Extraction from PDF</t>
-  </si>
-  <si>
     <t>MAUDE - Risk Analysis</t>
   </si>
   <si>
@@ -261,23 +234,84 @@
   </si>
   <si>
     <t>1st Month (30 Days)</t>
+  </si>
+  <si>
+    <t>https://github.com/necolo/d3-mindmap</t>
+  </si>
+  <si>
+    <t>Unstructred Table Extraction from PDF</t>
+  </si>
+  <si>
+    <t>MAUDE - GRAPH RAG</t>
+  </si>
+  <si>
+    <t>2nd Month (30 Days)</t>
+  </si>
+  <si>
+    <t>Handwritten Bill Extraction</t>
+  </si>
+  <si>
+    <t>Complete Guide to Building, Deploying, and Optimizing Generative AI with Langchain and Huggingface - UDEMY</t>
+  </si>
+  <si>
+    <t>Section 21, 22, 23</t>
+  </si>
+  <si>
+    <t>Section 24,25</t>
+  </si>
+  <si>
+    <t>NLP Playlist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ENLEjGozrio&amp;t=2580s</t>
+  </si>
+  <si>
+    <t>1. https://www.nomic.ai/gpt4all
+2. https://ollama.com/blog/embedding-models</t>
+  </si>
+  <si>
+    <t>Cache RAG</t>
+  </si>
+  <si>
+    <t>1. https://github.com/AloyBanerjee/RAG-GRAPH</t>
+  </si>
+  <si>
+    <t>1. https://github.com/AloyBanerjee/deep-RAG</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>1. https://github.com/AloyBanerjee/CAG</t>
+  </si>
+  <si>
+    <t>Genrative AI - PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel RAG with Structured Output </t>
+  </si>
+  <si>
+    <t>SMOL Agents</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ENLEjGozrio?si=BwmJE2k3QiGBrJBI</t>
+  </si>
+  <si>
+    <t>Basic Gen AI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLA1lVIthbM1D5I6r5uY2K89X1KD2w5LNh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -291,12 +325,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2D2F31"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -361,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -379,43 +407,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -461,92 +452,67 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -830,711 +796,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="77.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="5">
         <v>45645</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="8">
         <v>3.5</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="5">
         <v>45647</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="8">
         <v>8</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="5">
         <v>45649</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
         <v>7.45</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="5">
         <v>45656</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="5">
         <v>45656</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="8">
         <v>0.5</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="5">
         <v>45656</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="E8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="5">
         <v>45657</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="5">
         <v>45658</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="19">
+      <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="5">
         <v>45659</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="5">
         <v>45660</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="5">
         <v>45660</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="8">
         <v>2</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="5">
         <v>45661</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45661</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45663</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45664</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45663</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="19">
-        <v>2</v>
-      </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="16">
-        <v>45661</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="19">
-        <v>2</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="16">
-        <v>45663</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="19">
+      <c r="E21" s="14"/>
+      <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="16">
-        <v>45664</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45664</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45668</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="23" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="8">
+        <v>5</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45668</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="8">
+        <v>4</v>
+      </c>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45669</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5</v>
+      </c>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45669</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="8">
+        <v>10</v>
+      </c>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="16">
-        <v>45668</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="19">
-        <v>5</v>
-      </c>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="16">
-        <v>45668</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="19">
-        <v>4</v>
-      </c>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="16">
-        <v>45669</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="19">
-        <v>5</v>
-      </c>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="16">
-        <v>45669</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="19">
-        <v>10</v>
-      </c>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="27">
-        <v>45676</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="19">
-        <v>12</v>
-      </c>
-      <c r="G29" s="25"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="27">
+        <v>66</v>
+      </c>
+      <c r="B30" s="16">
+        <v>45680</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="8">
+        <v>5</v>
+      </c>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="16">
+        <v>45676</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="8">
+        <v>12</v>
+      </c>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="16">
         <v>45678</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="19">
+      <c r="C32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="8">
         <v>4</v>
       </c>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="16">
+        <v>45679</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="16">
+        <v>45681</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="16">
+        <v>45680</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19">
+        <v>6</v>
+      </c>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="27">
-        <v>45679</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-      <c r="G31" s="25"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="16">
+        <v>45683</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="1">
+  <autoFilter ref="A1:G33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{3091D07A-B349-4F69-A453-28F2171B5391}"/>
     <hyperlink ref="D8" r:id="rId2" xr:uid="{0FE3ACB5-D19B-4485-8EA2-E54B67CBE1BB}"/>
     <hyperlink ref="E12" r:id="rId3" xr:uid="{26B6BAED-DB7D-42EE-A831-31175ECC4127}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{565FC47A-2AFF-4DA6-BBC9-76D6B887BA92}"/>
-    <hyperlink ref="D20" r:id="rId5" display="https://github.com/ajac-zero/excel-rag-example" xr:uid="{8CAAECCA-A133-4ECD-9619-252BA0F6A1EF}"/>
-    <hyperlink ref="D22" r:id="rId6" xr:uid="{01404993-B9F8-4292-8DE1-5BBADD1877A9}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{6635CEF5-3A4A-4004-B908-435CD3347E15}"/>
-    <hyperlink ref="D24" r:id="rId8" xr:uid="{F5802AEF-42AD-43E1-B478-D96C376C40D4}"/>
-    <hyperlink ref="D23" r:id="rId9" xr:uid="{81B89114-0D36-464D-8D3D-CF1D455DBAEF}"/>
-    <hyperlink ref="D26" r:id="rId10" display="https://docs.together.ai/docs/introduction" xr:uid="{27BE20C7-3B67-4ED7-AF6D-5C9E7B9AA404}"/>
-    <hyperlink ref="D29" r:id="rId11" xr:uid="{3B611588-5AC7-4BD1-9EE8-1F2031E8EBF2}"/>
-    <hyperlink ref="D31" r:id="rId12" xr:uid="{DC898556-88E1-4288-92C3-7A37A2B3B755}"/>
+    <hyperlink ref="D22" r:id="rId5" display="https://github.com/ajac-zero/excel-rag-example" xr:uid="{8CAAECCA-A133-4ECD-9619-252BA0F6A1EF}"/>
+    <hyperlink ref="D24" r:id="rId6" xr:uid="{01404993-B9F8-4292-8DE1-5BBADD1877A9}"/>
+    <hyperlink ref="D23" r:id="rId7" xr:uid="{6635CEF5-3A4A-4004-B908-435CD3347E15}"/>
+    <hyperlink ref="D26" r:id="rId8" xr:uid="{F5802AEF-42AD-43E1-B478-D96C376C40D4}"/>
+    <hyperlink ref="D25" r:id="rId9" xr:uid="{81B89114-0D36-464D-8D3D-CF1D455DBAEF}"/>
+    <hyperlink ref="D28" r:id="rId10" display="https://docs.together.ai/docs/introduction" xr:uid="{27BE20C7-3B67-4ED7-AF6D-5C9E7B9AA404}"/>
+    <hyperlink ref="D31" r:id="rId11" xr:uid="{3B611588-5AC7-4BD1-9EE8-1F2031E8EBF2}"/>
+    <hyperlink ref="D33" r:id="rId12" xr:uid="{DC898556-88E1-4288-92C3-7A37A2B3B755}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097A4654-9ADF-4290-A696-51087C3F5F58}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF91626-C2B3-43F9-91D8-9E1C4EA536D3}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="74.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>47</v>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45664</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="10" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="20">
+        <v>45689</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="5">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45665</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>57</v>
+      <c r="D2" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="20">
+        <v>45696</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:E5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" xr:uid="{0F9AF6FC-25D5-4C97-B5BE-6E9EB4C5BCC5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/InterviewPreparation.xlsx
+++ b/InterviewPreparation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Interview Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D5EE2-E6EA-4869-8452-2316A4658DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CEFC35-148A-4E3E-9037-0158465BD76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Joint study" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Progress Tracker'!$A$1:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Progress Tracker'!$A$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
   <si>
     <t>Topic</t>
   </si>
@@ -304,6 +304,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLA1lVIthbM1D5I6r5uY2K89X1KD2w5LNh</t>
+  </si>
+  <si>
+    <t>Browser AI - Pending Detailed Understanding</t>
+  </si>
+  <si>
+    <t>Partially completed. But still facing some issue while executing the python file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLM Finetuning   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeepSeek Understanding </t>
+  </si>
+  <si>
+    <t>Basic understanding of the Deep Seek is clear.</t>
   </si>
 </sst>
 </file>
@@ -454,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -514,6 +529,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,8 +1292,8 @@
       <c r="B25" s="5">
         <v>45668</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>6</v>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>54</v>
@@ -1538,7 +1556,7 @@
       <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="18"/>
       <c r="F40" s="19"/>
       <c r="G40" s="18"/>
@@ -1556,8 +1574,57 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
+    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="16">
+        <v>45690</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="16">
+        <v>45698</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="24">
+        <v>8</v>
+      </c>
+      <c r="G44" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G33" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A34:G34"/>
@@ -1575,9 +1642,10 @@
     <hyperlink ref="D28" r:id="rId10" display="https://docs.together.ai/docs/introduction" xr:uid="{27BE20C7-3B67-4ED7-AF6D-5C9E7B9AA404}"/>
     <hyperlink ref="D31" r:id="rId11" xr:uid="{3B611588-5AC7-4BD1-9EE8-1F2031E8EBF2}"/>
     <hyperlink ref="D33" r:id="rId12" xr:uid="{DC898556-88E1-4288-92C3-7A37A2B3B755}"/>
+    <hyperlink ref="D36" r:id="rId13" xr:uid="{EB62E534-D5BB-45BF-88AA-02272F3B9AE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1586,7 +1654,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InterviewPreparation.xlsx
+++ b/InterviewPreparation.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Interview Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CEFC35-148A-4E3E-9037-0158465BD76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E5A762-2B45-4CC9-8E89-6DE6E4271F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Progress Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Joint study" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Progress Tracker'!$A$1:$G$41</definedName>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>Topic</t>
   </si>
@@ -294,24 +293,9 @@
     <t>SMOL Agents</t>
   </si>
   <si>
-    <t>NLP</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ENLEjGozrio?si=BwmJE2k3QiGBrJBI</t>
-  </si>
-  <si>
-    <t>Basic Gen AI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/playlist?list=PLA1lVIthbM1D5I6r5uY2K89X1KD2w5LNh</t>
-  </si>
-  <si>
     <t>Browser AI - Pending Detailed Understanding</t>
   </si>
   <si>
-    <t>Partially completed. But still facing some issue while executing the python file.</t>
-  </si>
-  <si>
     <t xml:space="preserve">LLM Finetuning   </t>
   </si>
   <si>
@@ -319,13 +303,32 @@
   </si>
   <si>
     <t>Basic understanding of the Deep Seek is clear.</t>
+  </si>
+  <si>
+    <t>GroundX RAG</t>
+  </si>
+  <si>
+    <t>1. https://github.com/patchy631/ai-engineering-hub/tree/main/agentic_rag_deepseek
+2. https://github.com/eyelevelai/groundx-on-prem</t>
+  </si>
+  <si>
+    <t>On-Hold</t>
+  </si>
+  <si>
+    <t>Working using GroQ - But need to check with streamlit.</t>
+  </si>
+  <si>
+    <t>YOLO V5 - Basic</t>
+  </si>
+  <si>
+    <t>YOLO V8 - Basic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +368,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +537,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -530,8 +549,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,8 +1292,8 @@
         <v>48</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="12" t="s">
-        <v>34</v>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>49</v>
@@ -1474,14 +1493,18 @@
       <c r="B35" s="16">
         <v>45681</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>6</v>
+      <c r="C35" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="19">
+        <v>8</v>
+      </c>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1576,22 +1599,24 @@
     </row>
     <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B42" s="18"/>
-      <c r="C42" s="9" t="s">
-        <v>6</v>
+      <c r="C42" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B43" s="16">
         <v>45690</v>
@@ -1606,7 +1631,7 @@
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B44" s="16">
         <v>45698</v>
@@ -1615,13 +1640,64 @@
         <v>11</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="20">
+        <v>8</v>
+      </c>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45703</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="24">
-        <v>8</v>
-      </c>
-      <c r="G44" s="18"/>
+      <c r="B46" s="5">
+        <v>45698</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19">
+        <v>4</v>
+      </c>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45700</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -1647,67 +1723,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF91626-C2B3-43F9-91D8-9E1C4EA536D3}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="74.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="20">
-        <v>45689</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="20">
-        <v>45696</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>